--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>日期</t>
   </si>
@@ -101,7 +101,7 @@
     <t>2018.5.17</t>
   </si>
   <si>
-    <t>18:00--20:00</t>
+    <t>18:30--21:00</t>
   </si>
   <si>
     <t>解决order运行失败问题.观看视频spring</t>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>bug修复完毕,视频观看部分</t>
+  </si>
+  <si>
+    <t>2018.5.18</t>
+  </si>
+  <si>
+    <t>14:00---16:00</t>
+  </si>
+  <si>
+    <t>配置环境,编写模块</t>
+  </si>
+  <si>
+    <t>实验三完成,</t>
   </si>
   <si>
     <t>周次</t>
@@ -124,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -135,6 +147,142 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,142 +293,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -297,181 +309,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,6 +494,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -500,17 +536,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,15 +567,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,28 +589,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +612,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,13 +1068,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="28.4444444444444" customWidth="1"/>
@@ -1188,6 +1200,23 @@
       </c>
       <c r="E7" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1244,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>日期</t>
   </si>
@@ -74,7 +74,7 @@
     <t>2018.5.15</t>
   </si>
   <si>
-    <t>14:00---17:40</t>
+    <t>14:00--17:40</t>
   </si>
   <si>
     <t>纠正order错误,将实体Order导入数据库</t>
@@ -89,7 +89,7 @@
     <t>2018.5.16</t>
   </si>
   <si>
-    <t>20:00---22:30</t>
+    <t>20:00--22:30</t>
   </si>
   <si>
     <t>编写部分</t>
@@ -116,13 +116,28 @@
     <t>2018.5.18</t>
   </si>
   <si>
-    <t>14:00---16:00</t>
+    <t>14:00--16:00</t>
   </si>
   <si>
     <t>配置环境,编写模块</t>
   </si>
   <si>
     <t>实验三完成,</t>
+  </si>
+  <si>
+    <t>2018.5.19</t>
+  </si>
+  <si>
+    <t>19:00--21:00</t>
+  </si>
+  <si>
+    <t>观看JPA视频</t>
+  </si>
+  <si>
+    <t>观看</t>
+  </si>
+  <si>
+    <t>继续观看</t>
   </si>
   <si>
     <t>周次</t>
@@ -136,10 +151,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -151,12 +166,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -164,85 +210,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,44 +308,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -303,25 +318,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,157 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +509,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,30 +559,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -550,8 +571,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,40 +609,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,13 +1083,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="28.4444444444444" customWidth="1"/>
@@ -1217,6 +1232,23 @@
       </c>
       <c r="E8" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1244,13 +1276,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>日期</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>继续观看</t>
+  </si>
+  <si>
+    <t>2018.5.20</t>
   </si>
   <si>
     <t>周次</t>
@@ -153,8 +156,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -166,6 +169,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -173,7 +183,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,75 +205,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,32 +273,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,175 +321,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,17 +515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +535,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,11 +574,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,15 +594,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,145 +618,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,10 +1086,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1248,6 +1251,23 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1276,13 +1296,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>日期</t>
   </si>
@@ -141,6 +141,27 @@
   </si>
   <si>
     <t>2018.5.20</t>
+  </si>
+  <si>
+    <t>2018.5.21</t>
+  </si>
+  <si>
+    <t>黑马视频,修改order</t>
+  </si>
+  <si>
+    <t>观看,修改</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>2018.5.22</t>
+  </si>
+  <si>
+    <t>15:00--18:00</t>
+  </si>
+  <si>
+    <t>编写</t>
   </si>
   <si>
     <t>周次</t>
@@ -154,10 +175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -176,12 +197,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -189,23 +232,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,8 +264,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,15 +289,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,40 +312,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -321,187 +342,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,39 +533,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,32 +547,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,16 +574,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,133 +651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,10 +1107,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1269,6 +1290,40 @@
       </c>
       <c r="E10" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1296,13 +1351,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>日期</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>编写</t>
+  </si>
+  <si>
+    <t>2018.5.23</t>
+  </si>
+  <si>
+    <t>修改order</t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
   <si>
     <t>周次</t>
@@ -175,9 +184,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -196,15 +205,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,77 +275,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,22 +328,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,19 +351,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,163 +501,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,6 +542,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,24 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -622,27 +642,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +660,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,10 +1116,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E17" sqref="E16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1324,6 +1333,23 @@
       </c>
       <c r="E12" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1351,13 +1377,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>日期</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>完成</t>
+  </si>
+  <si>
+    <t>2018.5.24</t>
+  </si>
+  <si>
+    <t>继续</t>
   </si>
   <si>
     <t>周次</t>
@@ -184,10 +190,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -205,9 +211,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,105 +302,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,19 +357,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,163 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,44 +553,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,17 +584,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,16 +622,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,133 +666,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,10 +1122,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E16:F17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1350,6 +1356,23 @@
       </c>
       <c r="E13" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1377,13 +1400,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>日期</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>继续</t>
+  </si>
+  <si>
+    <t>2018.5.26</t>
+  </si>
+  <si>
+    <t>观看spring视频</t>
   </si>
   <si>
     <t>周次</t>
@@ -190,10 +196,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -205,7 +211,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,108 +330,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,187 +363,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,11 +557,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,21 +611,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -608,17 +620,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,10 +660,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,133 +672,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,10 +1128,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1375,6 +1381,24 @@
         <v>53</v>
       </c>
     </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1400,13 +1424,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>日期</t>
   </si>
@@ -183,6 +183,27 @@
   </si>
   <si>
     <t>观看spring视频</t>
+  </si>
+  <si>
+    <t>2018.5.28</t>
+  </si>
+  <si>
+    <t>20:00--22:00</t>
+  </si>
+  <si>
+    <t>未完待续</t>
+  </si>
+  <si>
+    <t>2018.5.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:00--19:00   </t>
+  </si>
+  <si>
+    <t>模板javaee</t>
+  </si>
+  <si>
+    <t>部分</t>
   </si>
   <si>
     <t>周次</t>
@@ -196,10 +217,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -218,26 +239,94 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -246,24 +335,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,83 +374,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -363,187 +384,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,6 +575,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -589,33 +634,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,11 +669,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,130 +696,130 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,7 +1152,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1398,7 +1419,40 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1"/>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:5">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1424,13 +1478,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>日期</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>部分</t>
+  </si>
+  <si>
+    <t>2018.6.2</t>
+  </si>
+  <si>
+    <t>龟速学习</t>
   </si>
   <si>
     <t>周次</t>
@@ -217,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -238,8 +244,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,101 +313,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,6 +366,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -384,19 +390,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,13 +504,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,139 +558,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,30 +581,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -613,6 +595,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,6 +658,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -651,175 +681,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,10 +1155,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1451,6 +1457,23 @@
       </c>
       <c r="E17" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1478,13 +1501,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>日期</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>龟速学习</t>
+  </si>
+  <si>
+    <t>2018.6.4</t>
   </si>
   <si>
     <t>周次</t>
@@ -225,8 +228,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -246,9 +249,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,105 +325,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,25 +393,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,157 +561,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,41 +587,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,17 +622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -676,8 +640,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,145 +690,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,10 +1158,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1473,6 +1476,23 @@
         <v>64</v>
       </c>
       <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1501,13 +1521,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>日期</t>
   </si>
@@ -213,6 +213,36 @@
   </si>
   <si>
     <t>2018.6.4</t>
+  </si>
+  <si>
+    <t>2018.6.5</t>
+  </si>
+  <si>
+    <t>20:00--22:01</t>
+  </si>
+  <si>
+    <t>2018.6.6</t>
+  </si>
+  <si>
+    <t>20:00--22:02</t>
+  </si>
+  <si>
+    <t>2018.6.7</t>
+  </si>
+  <si>
+    <t>20:00--22:03</t>
+  </si>
+  <si>
+    <t>2018.6.8</t>
+  </si>
+  <si>
+    <t>20:00--22:04</t>
+  </si>
+  <si>
+    <t>2018.6.9</t>
+  </si>
+  <si>
+    <t>20:00--22:05</t>
   </si>
   <si>
     <t>周次</t>
@@ -226,10 +256,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -242,6 +272,68 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,7 +348,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -264,21 +371,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,77 +393,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,14 +413,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -399,181 +429,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,65 +614,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -664,8 +635,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,16 +666,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,133 +732,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1158,10 +1188,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1493,6 +1523,91 @@
         <v>64</v>
       </c>
       <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1521,13 +1636,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>日期</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>20:00--22:05</t>
+  </si>
+  <si>
+    <t>2018.6.10</t>
+  </si>
+  <si>
+    <t>20:00--22:06</t>
   </si>
   <si>
     <t>周次</t>
@@ -256,10 +262,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -272,6 +278,106 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,68 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -362,21 +406,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -384,29 +413,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -423,187 +429,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,6 +620,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -634,15 +649,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -652,35 +658,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,16 +696,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,133 +738,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1188,10 +1194,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1608,6 +1614,23 @@
         <v>64</v>
       </c>
       <c r="E24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1636,13 +1659,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>日期</t>
   </si>
@@ -218,37 +218,28 @@
     <t>2018.6.5</t>
   </si>
   <si>
-    <t>20:00--22:01</t>
-  </si>
-  <si>
     <t>2018.6.6</t>
   </si>
   <si>
-    <t>20:00--22:02</t>
-  </si>
-  <si>
     <t>2018.6.7</t>
   </si>
   <si>
-    <t>20:00--22:03</t>
-  </si>
-  <si>
     <t>2018.6.8</t>
   </si>
   <si>
-    <t>20:00--22:04</t>
-  </si>
-  <si>
     <t>2018.6.9</t>
   </si>
   <si>
-    <t>20:00--22:05</t>
-  </si>
-  <si>
     <t>2018.6.10</t>
   </si>
   <si>
-    <t>20:00--22:06</t>
+    <t>2018.6.12</t>
+  </si>
+  <si>
+    <t>编写报告</t>
+  </si>
+  <si>
+    <t>未完成,待做</t>
   </si>
   <si>
     <t>周次</t>
@@ -262,10 +253,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -278,6 +269,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +310,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -327,11 +380,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,75 +410,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -429,187 +420,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,6 +619,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,38 +682,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,8 +706,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,145 +717,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1537,7 +1528,7 @@
         <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
@@ -1551,10 +1542,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -1568,10 +1559,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
         <v>55</v>
@@ -1585,10 +1576,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>55</v>
@@ -1602,10 +1593,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
         <v>55</v>
@@ -1619,10 +1610,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
         <v>55</v>
@@ -1632,6 +1623,23 @@
       </c>
       <c r="E25" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1659,13 +1667,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>日期</t>
   </si>
@@ -209,7 +209,10 @@
     <t>2018.6.2</t>
   </si>
   <si>
-    <t>龟速学习</t>
+    <t>mvc</t>
+  </si>
+  <si>
+    <t>学习</t>
   </si>
   <si>
     <t>2018.6.4</t>
@@ -227,6 +230,9 @@
     <t>2018.6.8</t>
   </si>
   <si>
+    <t>json</t>
+  </si>
+  <si>
     <t>2018.6.9</t>
   </si>
   <si>
@@ -239,7 +245,22 @@
     <t>编写报告</t>
   </si>
   <si>
-    <t>未完成,待做</t>
+    <t>继续完成</t>
+  </si>
+  <si>
+    <t>2018.6.13</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>2018.6.14</t>
+  </si>
+  <si>
+    <t>orderMangerTest修改,web</t>
+  </si>
+  <si>
+    <t>修改完成,web待看</t>
   </si>
   <si>
     <t>周次</t>
@@ -253,10 +274,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -275,14 +296,108 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,112 +419,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -420,79 +441,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,103 +597,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,11 +635,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,17 +689,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,40 +732,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,133 +750,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,10 +1206,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1497,149 +1518,183 @@
         <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
         <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1667,13 +1722,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>日期</t>
   </si>
@@ -261,6 +261,18 @@
   </si>
   <si>
     <t>修改完成,web待看</t>
+  </si>
+  <si>
+    <t>17:00--19:50</t>
+  </si>
+  <si>
+    <t>web项目创立</t>
+  </si>
+  <si>
+    <t>重装jdk,项目基本创建完毕</t>
+  </si>
+  <si>
+    <t>内容待编写</t>
   </si>
   <si>
     <t>周次</t>
@@ -276,8 +288,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -289,14 +301,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,8 +345,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,53 +436,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -379,58 +443,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -441,187 +453,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,6 +658,56 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,21 +736,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -697,51 +744,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,133 +762,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,10 +1218,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1695,6 +1707,23 @@
       </c>
       <c r="E28" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1722,13 +1751,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>日期</t>
   </si>
@@ -141,6 +141,141 @@
   </si>
   <si>
     <t>2018.5.20</t>
+  </si>
+  <si>
+    <t>2018.5.21</t>
+  </si>
+  <si>
+    <t>黑马视频,修改order</t>
+  </si>
+  <si>
+    <t>观看,修改</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>2018.5.22</t>
+  </si>
+  <si>
+    <t>15:00--18:00</t>
+  </si>
+  <si>
+    <t>编写</t>
+  </si>
+  <si>
+    <t>2018.5.23</t>
+  </si>
+  <si>
+    <t>修改order</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>2018.5.24</t>
+  </si>
+  <si>
+    <t>继续</t>
+  </si>
+  <si>
+    <t>2018.5.26</t>
+  </si>
+  <si>
+    <t>观看spring视频</t>
+  </si>
+  <si>
+    <t>2018.5.28</t>
+  </si>
+  <si>
+    <t>20:00--22:00</t>
+  </si>
+  <si>
+    <t>未完待续</t>
+  </si>
+  <si>
+    <t>2018.5.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:00--19:00   </t>
+  </si>
+  <si>
+    <t>模板javaee</t>
+  </si>
+  <si>
+    <t>部分</t>
+  </si>
+  <si>
+    <t>2018.6.2</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>继续学习</t>
+  </si>
+  <si>
+    <t>2018.6.4</t>
+  </si>
+  <si>
+    <t>2018.6.5</t>
+  </si>
+  <si>
+    <t>2018.6.6</t>
+  </si>
+  <si>
+    <t>mvc视频</t>
+  </si>
+  <si>
+    <t>2018.6.7</t>
+  </si>
+  <si>
+    <t>2018.6.8</t>
+  </si>
+  <si>
+    <t>2018.6.9</t>
+  </si>
+  <si>
+    <t>json视频</t>
+  </si>
+  <si>
+    <t>2018.6.10</t>
+  </si>
+  <si>
+    <t>2018.6.12</t>
+  </si>
+  <si>
+    <t>编写报告</t>
+  </si>
+  <si>
+    <t>未完成,待做</t>
+  </si>
+  <si>
+    <t>2018.6.13</t>
+  </si>
+  <si>
+    <t>web文件</t>
+  </si>
+  <si>
+    <t>框架基本了解</t>
+  </si>
+  <si>
+    <t>待做</t>
+  </si>
+  <si>
+    <t>2018.6.14</t>
+  </si>
+  <si>
+    <t>14:00--16:00    17:00--19:50</t>
+  </si>
+  <si>
+    <t>更新修改order,配置web文件</t>
+  </si>
+  <si>
+    <t>order更新完毕.jdk不兼容,重装,web文件创建</t>
+  </si>
+  <si>
+    <t>文件待编写</t>
   </si>
   <si>
     <t>周次</t>
@@ -154,10 +289,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -169,35 +304,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +319,73 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -236,15 +410,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,57 +440,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -321,91 +456,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,91 +630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,15 +647,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,7 +669,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,6 +701,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -588,40 +747,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,19 +765,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,112 +786,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,10 +1221,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1097,7 +1232,7 @@
     <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="28.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="36.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="28.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="44.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="29.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1269,6 +1404,312 @@
       </c>
       <c r="E10" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:5">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1296,13 +1737,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>日期</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>文件待编写</t>
+  </si>
+  <si>
+    <t>2018.6.18</t>
+  </si>
+  <si>
+    <t>报告</t>
   </si>
   <si>
     <t>周次</t>
@@ -289,10 +295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -318,6 +324,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -327,28 +416,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,48 +439,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,44 +452,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -456,187 +462,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,11 +671,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,32 +697,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,6 +719,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -753,10 +759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,19 +771,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,112 +792,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1221,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1710,6 +1716,23 @@
       </c>
       <c r="E28" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1737,13 +1760,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>日期</t>
   </si>
@@ -282,6 +282,21 @@
   </si>
   <si>
     <t>报告</t>
+  </si>
+  <si>
+    <t>2018.6.19</t>
+  </si>
+  <si>
+    <t>13:00--16:30</t>
+  </si>
+  <si>
+    <t>JIPA与Jenkins安装与使用</t>
+  </si>
+  <si>
+    <t>Jenkins安装并配置插件,按步骤进行当中,JIPA未完成</t>
+  </si>
+  <si>
+    <t>待完成</t>
   </si>
   <si>
     <t>周次</t>
@@ -297,8 +312,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -310,7 +325,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,22 +361,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,29 +430,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -383,17 +437,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,50 +461,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -462,85 +477,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,97 +657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,6 +668,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -667,6 +706,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,55 +736,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,151 +759,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1227,10 +1242,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1238,7 +1253,7 @@
     <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="28.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="36.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="44.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="50.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="29.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1723,7 +1738,7 @@
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>88</v>
@@ -1733,6 +1748,23 @@
       </c>
       <c r="E29" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1760,13 +1792,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>日期</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>待完成</t>
+  </si>
+  <si>
+    <t>2018.6.20</t>
+  </si>
+  <si>
+    <t>JIPA的安装与立项讨论</t>
+  </si>
+  <si>
+    <t>安装一半,立项未完成</t>
   </si>
   <si>
     <t>周次</t>
@@ -310,10 +319,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -325,14 +334,74 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,6 +416,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -360,113 +476,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -477,187 +486,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,9 +682,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,28 +724,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,32 +757,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,133 +795,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1242,10 +1251,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1764,6 +1773,23 @@
         <v>92</v>
       </c>
       <c r="E30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1792,13 +1818,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>日期</t>
   </si>
@@ -297,15 +297,6 @@
   </si>
   <si>
     <t>待完成</t>
-  </si>
-  <si>
-    <t>2018.6.20</t>
-  </si>
-  <si>
-    <t>JIPA的安装与立项讨论</t>
-  </si>
-  <si>
-    <t>安装一半,立项未完成</t>
   </si>
   <si>
     <t>周次</t>
@@ -319,10 +310,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -334,14 +325,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,10 +385,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,14 +408,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,6 +439,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,76 +467,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -486,187 +477,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,29 +673,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,17 +695,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,23 +739,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,145 +774,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,10 +1242,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1773,23 +1764,6 @@
         <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1818,13 +1792,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
   <si>
     <t>日期</t>
   </si>
@@ -306,6 +306,18 @@
   </si>
   <si>
     <t>安装一半,立项未完成</t>
+  </si>
+  <si>
+    <t>2018.6.21</t>
+  </si>
+  <si>
+    <t>Jenkins环境配置,讨论,分配立项报告</t>
+  </si>
+  <si>
+    <t>Jenkins运行svn服务器失败(暂时无法解决),立项报告完成部分</t>
+  </si>
+  <si>
+    <t>立项报告编写当中</t>
   </si>
   <si>
     <t>周次</t>
@@ -319,9 +331,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -341,7 +353,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,34 +398,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -392,8 +406,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,21 +429,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -446,6 +452,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -461,21 +488,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -486,187 +498,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,13 +692,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,9 +718,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,6 +743,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -739,21 +772,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -763,17 +781,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,10 +795,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,133 +807,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,10 +1263,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1262,7 +1274,7 @@
     <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="28.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="36.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="50.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="58.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="29.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1791,6 +1803,23 @@
       </c>
       <c r="E31" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="32" ht="16" customHeight="1" spans="1:5">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1818,13 +1847,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
   <si>
     <t>日期</t>
   </si>
@@ -318,6 +318,18 @@
   </si>
   <si>
     <t>立项报告编写当中</t>
+  </si>
+  <si>
+    <t>2018.6.22</t>
+  </si>
+  <si>
+    <t>mysql安装与立项报告</t>
+  </si>
+  <si>
+    <t>mysql安装配置错误,调试中</t>
+  </si>
+  <si>
+    <t>继续安装</t>
   </si>
   <si>
     <t>周次</t>
@@ -331,10 +343,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -346,6 +358,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -353,7 +380,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,7 +388,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,46 +417,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,22 +454,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,6 +477,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -498,187 +510,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,30 +704,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -723,36 +711,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,7 +734,61 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,145 +807,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1263,10 +1275,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1820,6 +1832,23 @@
       </c>
       <c r="E32" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1847,13 +1876,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
   <si>
     <t>日期</t>
   </si>
@@ -330,6 +330,27 @@
   </si>
   <si>
     <t>继续安装</t>
+  </si>
+  <si>
+    <t>2018.6.23</t>
+  </si>
+  <si>
+    <t>mysql安装,JIRA安装</t>
+  </si>
+  <si>
+    <t>mysql配置成功</t>
+  </si>
+  <si>
+    <t>2018.6.24</t>
+  </si>
+  <si>
+    <t>14:00--18:00</t>
+  </si>
+  <si>
+    <t>JIRA安装与配置</t>
+  </si>
+  <si>
+    <t>,JIRA配置失败,寻找翻墙软件</t>
   </si>
   <si>
     <t>周次</t>
@@ -372,36 +393,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -416,15 +407,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,7 +462,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -478,24 +492,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,187 +531,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,11 +727,72 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,72 +814,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,10 +828,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,133 +840,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,10 +1296,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1849,6 +1870,40 @@
       </c>
       <c r="E33" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1876,13 +1931,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <t>日期</t>
   </si>
@@ -351,6 +351,24 @@
   </si>
   <si>
     <t>,JIRA配置失败,寻找翻墙软件</t>
+  </si>
+  <si>
+    <t>2018.6.25</t>
+  </si>
+  <si>
+    <t>安装成功</t>
+  </si>
+  <si>
+    <t>Jenkins继续安装</t>
+  </si>
+  <si>
+    <t>2018.6.26</t>
+  </si>
+  <si>
+    <t>Jenkins错误修改,继续安装</t>
+  </si>
+  <si>
+    <t>报告文档</t>
   </si>
   <si>
     <t>周次</t>
@@ -364,10 +382,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -393,15 +411,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,24 +440,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,8 +479,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,30 +534,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,187 +549,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,6 +740,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -750,54 +783,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -814,6 +799,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -822,16 +831,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -840,133 +858,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1296,10 +1314,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1904,6 +1922,40 @@
       </c>
       <c r="E35" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1931,13 +1983,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
   <si>
     <t>日期</t>
   </si>
@@ -356,6 +356,9 @@
     <t>2018.6.25</t>
   </si>
   <si>
+    <t>13:00--16:00</t>
+  </si>
+  <si>
     <t>安装成功</t>
   </si>
   <si>
@@ -369,6 +372,18 @@
   </si>
   <si>
     <t>报告文档</t>
+  </si>
+  <si>
+    <t>2018.6.27</t>
+  </si>
+  <si>
+    <t>模块修改,文档编写</t>
+  </si>
+  <si>
+    <t>模块继续修改,文档待编写</t>
+  </si>
+  <si>
+    <t>继续修改,编写文档</t>
   </si>
   <si>
     <t>周次</t>
@@ -383,9 +398,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -410,14 +425,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -433,16 +440,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,17 +470,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,7 +487,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,6 +508,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,33 +523,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -549,6 +564,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -561,175 +648,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,6 +755,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -767,17 +806,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,46 +841,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,145 +861,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1314,10 +1329,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1929,33 +1944,50 @@
         <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
         <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" t="s">
         <v>113</v>
       </c>
-      <c r="E37" t="s">
-        <v>117</v>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1983,13 +2015,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>日期</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>继续修改,编写文档</t>
+  </si>
+  <si>
+    <t>2018.6.28</t>
   </si>
   <si>
     <t>周次</t>
@@ -398,9 +401,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -412,82 +415,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,7 +437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,9 +445,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,7 +491,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,6 +504,59 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -564,19 +567,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,163 +747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,6 +758,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -782,26 +794,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,11 +814,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,31 +858,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,133 +876,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1329,10 +1332,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1987,6 +1990,23 @@
         <v>121</v>
       </c>
       <c r="E38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2015,13 +2035,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>日期</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>2018.6.28</t>
+  </si>
+  <si>
+    <t>2018.6.29</t>
   </si>
   <si>
     <t>周次</t>
@@ -400,10 +403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -414,52 +417,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,9 +456,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,14 +486,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,7 +501,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,21 +560,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -567,13 +570,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,169 +720,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,11 +764,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,59 +838,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,10 +867,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,133 +879,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1332,10 +1335,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -2007,6 +2010,23 @@
         <v>121</v>
       </c>
       <c r="E39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2035,13 +2055,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="16968" windowHeight="5555"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>日期</t>
   </si>
@@ -390,6 +390,15 @@
   </si>
   <si>
     <t>2018.6.29</t>
+  </si>
+  <si>
+    <t>2018.7.2</t>
+  </si>
+  <si>
+    <t>order模块增添实体属性,文档编写</t>
+  </si>
+  <si>
+    <t>运行成功,文档继续编写</t>
   </si>
   <si>
     <t>周次</t>
@@ -417,9 +426,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,6 +442,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,13 +485,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -470,18 +493,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,15 +533,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,33 +563,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -570,187 +579,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,63 +770,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -838,11 +790,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,16 +835,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -879,133 +888,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1335,10 +1344,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -2028,6 +2037,23 @@
       </c>
       <c r="E40" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2055,13 +2081,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16968" windowHeight="5555"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
   <si>
     <t>日期</t>
   </si>
@@ -399,6 +399,15 @@
   </si>
   <si>
     <t>运行成功,文档继续编写</t>
+  </si>
+  <si>
+    <t>2018.7.3</t>
+  </si>
+  <si>
+    <t>Jenkins使用说明</t>
+  </si>
+  <si>
+    <t>使用</t>
   </si>
   <si>
     <t>周次</t>
@@ -412,10 +421,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -434,14 +443,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,8 +471,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,23 +528,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,8 +550,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,36 +565,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -579,19 +588,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,43 +714,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,25 +744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,13 +756,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,67 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,6 +779,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -788,11 +821,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,17 +845,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,34 +874,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,10 +885,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -888,133 +897,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1344,10 +1353,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -2054,6 +2063,23 @@
       </c>
       <c r="E41" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2081,13 +2107,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <t>日期</t>
   </si>
@@ -408,6 +408,24 @@
   </si>
   <si>
     <t>使用</t>
+  </si>
+  <si>
+    <t>2018.7.4</t>
+  </si>
+  <si>
+    <t>更新代码</t>
+  </si>
+  <si>
+    <t>更新完成</t>
+  </si>
+  <si>
+    <t>2018.7.5</t>
+  </si>
+  <si>
+    <t>JIRA的使用</t>
+  </si>
+  <si>
+    <t>初步了解</t>
   </si>
   <si>
     <t>周次</t>
@@ -422,9 +440,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -449,14 +467,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -473,7 +483,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,56 +535,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,23 +551,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,6 +564,38 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -588,19 +606,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,163 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,22 +804,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,6 +829,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,19 +862,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,25 +897,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -897,133 +915,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1353,10 +1371,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -2079,6 +2097,40 @@
         <v>130</v>
       </c>
       <c r="E42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2107,13 +2159,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
   <si>
     <t>日期</t>
   </si>
@@ -426,6 +426,15 @@
   </si>
   <si>
     <t>初步了解</t>
+  </si>
+  <si>
+    <t>2018.7.17</t>
+  </si>
+  <si>
+    <t>13:00--17:30</t>
+  </si>
+  <si>
+    <t>java的基础应用</t>
   </si>
   <si>
     <t>周次</t>
@@ -440,9 +449,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -454,16 +463,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,8 +498,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,16 +537,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,13 +554,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,17 +567,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,41 +583,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,6 +598,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -606,31 +615,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,151 +783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,7 +813,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,7 +861,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,45 +893,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -903,10 +912,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -915,16 +924,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -933,115 +942,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1371,10 +1380,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="D41" sqref="E45 D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -2132,6 +2141,23 @@
       </c>
       <c r="E44" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2159,13 +2185,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>日期</t>
   </si>
@@ -434,7 +434,79 @@
     <t>13:00--17:30</t>
   </si>
   <si>
-    <t>java的基础应用</t>
+    <t>java的基础应用与回顾</t>
+  </si>
+  <si>
+    <t>2018.7.20</t>
+  </si>
+  <si>
+    <t>2018.7.21</t>
+  </si>
+  <si>
+    <t>2018.7.22</t>
+  </si>
+  <si>
+    <t>2018.7.23</t>
+  </si>
+  <si>
+    <t>2018.7.25</t>
+  </si>
+  <si>
+    <t>2018.7.26</t>
+  </si>
+  <si>
+    <t>2018.7.28</t>
+  </si>
+  <si>
+    <t>2018.7.29</t>
+  </si>
+  <si>
+    <t>2018.8.2</t>
+  </si>
+  <si>
+    <t>多态</t>
+  </si>
+  <si>
+    <t>2018.8.3</t>
+  </si>
+  <si>
+    <t>2018.8.4</t>
+  </si>
+  <si>
+    <t>2018.8.5</t>
+  </si>
+  <si>
+    <t>io流控制</t>
+  </si>
+  <si>
+    <t>2018.8.6</t>
+  </si>
+  <si>
+    <t>2018.8.7</t>
+  </si>
+  <si>
+    <t>2018.8.8</t>
+  </si>
+  <si>
+    <t>2018.8.9</t>
+  </si>
+  <si>
+    <t>2018.8.13</t>
+  </si>
+  <si>
+    <t>使用SWT布局管理</t>
+  </si>
+  <si>
+    <t>2018.8.15</t>
+  </si>
+  <si>
+    <t>2018.8.16</t>
+  </si>
+  <si>
+    <t>2018.8.18</t>
+  </si>
+  <si>
+    <t>2018.8.19</t>
   </si>
   <si>
     <t>周次</t>
@@ -463,21 +535,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,11 +563,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -521,8 +585,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,9 +639,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,29 +677,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -615,187 +687,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,8 +884,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,26 +929,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,17 +964,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -912,10 +984,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -924,133 +996,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1380,10 +1452,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="E45 D41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -2157,6 +2229,363 @@
         <v>64</v>
       </c>
       <c r="E45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" ht="13" customHeight="1" spans="1:5">
+      <c r="A51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2185,13 +2614,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
   <si>
     <t>日期</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>java的基础应用与回顾</t>
+  </si>
+  <si>
+    <t>学习视频,实践练习</t>
   </si>
   <si>
     <t>2018.7.20</t>
@@ -521,9 +524,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -534,30 +537,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,6 +559,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -585,16 +581,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,6 +592,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,39 +621,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,9 +659,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,25 +690,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,19 +852,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,133 +870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,34 +884,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -925,6 +910,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,32 +964,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,10 +987,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -996,133 +999,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1454,8 +1457,8 @@
   <sheetPr/>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -2226,7 +2229,7 @@
         <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E45" t="s">
         <v>64</v>
@@ -2234,7 +2237,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
         <v>113</v>
@@ -2243,7 +2246,7 @@
         <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
         <v>64</v>
@@ -2251,7 +2254,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s">
         <v>113</v>
@@ -2260,7 +2263,7 @@
         <v>139</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E47" t="s">
         <v>64</v>
@@ -2268,7 +2271,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
         <v>113</v>
@@ -2277,7 +2280,7 @@
         <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
         <v>64</v>
@@ -2285,7 +2288,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
         <v>113</v>
@@ -2294,7 +2297,7 @@
         <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E49" t="s">
         <v>64</v>
@@ -2302,7 +2305,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B50" t="s">
         <v>113</v>
@@ -2311,7 +2314,7 @@
         <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
         <v>64</v>
@@ -2319,7 +2322,7 @@
     </row>
     <row r="51" ht="13" customHeight="1" spans="1:5">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
         <v>113</v>
@@ -2328,7 +2331,7 @@
         <v>139</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E51" t="s">
         <v>64</v>
@@ -2336,7 +2339,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s">
         <v>113</v>
@@ -2345,7 +2348,7 @@
         <v>139</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
         <v>64</v>
@@ -2353,7 +2356,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B53" t="s">
         <v>113</v>
@@ -2362,7 +2365,7 @@
         <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E53" t="s">
         <v>64</v>
@@ -2370,16 +2373,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B54" t="s">
         <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E54" t="s">
         <v>64</v>
@@ -2387,16 +2390,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
         <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
         <v>64</v>
@@ -2404,16 +2407,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B56" t="s">
         <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
         <v>64</v>
@@ -2421,16 +2424,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s">
         <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
         <v>64</v>
@@ -2438,16 +2441,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B58" t="s">
         <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E58" t="s">
         <v>64</v>
@@ -2455,16 +2458,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B59" t="s">
         <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E59" t="s">
         <v>64</v>
@@ -2472,16 +2475,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B60" t="s">
         <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E60" t="s">
         <v>64</v>
@@ -2489,16 +2492,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B61" t="s">
         <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E61" t="s">
         <v>64</v>
@@ -2506,16 +2509,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B62" t="s">
         <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E62" t="s">
         <v>64</v>
@@ -2523,16 +2526,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B63" t="s">
         <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E63" t="s">
         <v>64</v>
@@ -2540,16 +2543,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B64" t="s">
         <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E64" t="s">
         <v>64</v>
@@ -2557,16 +2560,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B65" t="s">
         <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E65" t="s">
         <v>64</v>
@@ -2574,7 +2577,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B66" t="s">
         <v>33</v>
@@ -2583,7 +2586,7 @@
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E66" t="s">
         <v>64</v>
@@ -2614,13 +2617,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040118_pangdi.xlsx
+++ b/hero/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
   <si>
     <t>日期</t>
   </si>
@@ -446,12 +446,21 @@
     <t>2018.7.21</t>
   </si>
   <si>
+    <t>学习Thymeleaf</t>
+  </si>
+  <si>
+    <t>自定义html模板学习,实现代码复用</t>
+  </si>
+  <si>
     <t>2018.7.22</t>
   </si>
   <si>
     <t>2018.7.23</t>
   </si>
   <si>
+    <t>学习springboot和模板引擎</t>
+  </si>
+  <si>
     <t>2018.7.25</t>
   </si>
   <si>
@@ -461,55 +470,40 @@
     <t>2018.7.28</t>
   </si>
   <si>
+    <t>完善order</t>
+  </si>
+  <si>
+    <t>继续完善</t>
+  </si>
+  <si>
     <t>2018.7.29</t>
   </si>
   <si>
+    <t>学习VueJs</t>
+  </si>
+  <si>
+    <t>学习VueJs视频</t>
+  </si>
+  <si>
     <t>2018.8.2</t>
   </si>
   <si>
-    <t>多态</t>
-  </si>
-  <si>
-    <t>2018.8.3</t>
-  </si>
-  <si>
     <t>2018.8.4</t>
   </si>
   <si>
     <t>2018.8.5</t>
   </si>
   <si>
-    <t>io流控制</t>
-  </si>
-  <si>
-    <t>2018.8.6</t>
-  </si>
-  <si>
-    <t>2018.8.7</t>
-  </si>
-  <si>
-    <t>2018.8.8</t>
-  </si>
-  <si>
-    <t>2018.8.9</t>
+    <t>回顾多态</t>
   </si>
   <si>
     <t>2018.8.13</t>
   </si>
   <si>
-    <t>使用SWT布局管理</t>
-  </si>
-  <si>
-    <t>2018.8.15</t>
-  </si>
-  <si>
-    <t>2018.8.16</t>
-  </si>
-  <si>
-    <t>2018.8.18</t>
-  </si>
-  <si>
     <t>2018.8.19</t>
+  </si>
+  <si>
+    <t>完善报告</t>
   </si>
   <si>
     <t>周次</t>
@@ -524,8 +518,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -537,9 +531,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,46 +561,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,6 +590,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -636,46 +659,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,43 +684,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,139 +852,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,32 +878,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,20 +919,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,11 +935,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,145 +981,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1455,10 +1449,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -2260,10 +2254,10 @@
         <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
         <v>64</v>
@@ -2271,16 +2265,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
         <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E48" t="s">
         <v>64</v>
@@ -2288,16 +2282,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
         <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
         <v>64</v>
@@ -2305,16 +2299,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B50" t="s">
         <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E50" t="s">
         <v>64</v>
@@ -2322,16 +2316,16 @@
     </row>
     <row r="51" ht="13" customHeight="1" spans="1:5">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
         <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E51" t="s">
         <v>64</v>
@@ -2339,50 +2333,50 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B52" t="s">
         <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E52" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
         <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E53" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" ht="16" customHeight="1" spans="1:5">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
         <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E54" t="s">
         <v>64</v>
@@ -2390,16 +2384,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
         <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E55" t="s">
         <v>64</v>
@@ -2407,13 +2401,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s">
         <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s">
         <v>140</v>
@@ -2424,13 +2418,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
         <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D57" t="s">
         <v>140</v>
@@ -2441,155 +2435,19 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
         <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D58" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="E58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" t="s">
-        <v>154</v>
-      </c>
-      <c r="D59" t="s">
-        <v>140</v>
-      </c>
-      <c r="E59" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" t="s">
-        <v>154</v>
-      </c>
-      <c r="D60" t="s">
-        <v>140</v>
-      </c>
-      <c r="E60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>158</v>
-      </c>
-      <c r="B61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" t="s">
-        <v>154</v>
-      </c>
-      <c r="D61" t="s">
-        <v>140</v>
-      </c>
-      <c r="E61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>159</v>
-      </c>
-      <c r="B62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" t="s">
-        <v>160</v>
-      </c>
-      <c r="D62" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>161</v>
-      </c>
-      <c r="B63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" t="s">
-        <v>160</v>
-      </c>
-      <c r="D63" t="s">
-        <v>140</v>
-      </c>
-      <c r="E63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>162</v>
-      </c>
-      <c r="B64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" t="s">
-        <v>160</v>
-      </c>
-      <c r="D64" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" t="s">
-        <v>160</v>
-      </c>
-      <c r="D65" t="s">
-        <v>140</v>
-      </c>
-      <c r="E65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>164</v>
-      </c>
-      <c r="B66" t="s">
-        <v>33</v>
-      </c>
-      <c r="C66" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" t="s">
-        <v>140</v>
-      </c>
-      <c r="E66" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2617,13 +2475,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
